--- a/biology/Botanique/Starking_Delicious/Starking_Delicious.xlsx
+++ b/biology/Botanique/Starking_Delicious/Starking_Delicious.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Starking Delicious est le nom d'un cultivar de pommier domestique. C'est le no 1 des pommes américaines, celle qu’on glisse dans le sac d’école et la boîte à goûter des écoliers.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Starking,
 Red Delicious.</t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une pomme à couteau[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une pomme à couteau.
 Bonne productivité avec une tendance à alterner d’où une pollinisation nécessaire pour régulariser la mise à fruit.
 Le fruit, de gros calibre, est bien typé, de forme tronconique, rouge foncé brillant, à la chair ferme, juteuse.
 Qualité gustative : douçâtre, très appréciée.
@@ -578,11 +594,13 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette variété provient des États-Unis. Obtenue par mutation, aux États-Unis, de la variété Delicious, elle s'en distingue par son coloris rouge carmin foncé sur toute la surface, même chez les fruits ombragés.
-Le nom semble indiquer que cette mutation fut obtenue par la pépinière Stark Brothers, à Louisiana, États-Unis Des données précises manquent cependant à ce sujet, mais il est établi que cette variété fut propagée et répandue par cette maison[2].
-Ce cultivar de pomme a notamment abouti à la création de la « Courtavel » par l'INRA en 1972, obtenue par mutagénèse pour en faire une variété de pommiers d'intérieur[3],[4].
+Le nom semble indiquer que cette mutation fut obtenue par la pépinière Stark Brothers, à Louisiana, États-Unis Des données précises manquent cependant à ce sujet, mais il est établi que cette variété fut propagée et répandue par cette maison.
+Ce cultivar de pomme a notamment abouti à la création de la « Courtavel » par l'INRA en 1972, obtenue par mutagénèse pour en faire une variété de pommiers d'intérieur,.
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Variété diploïde.
 La Golden fleurit à la mi-saison, du 25 mars au 20 avril.
@@ -644,11 +664,48 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Starking Delicious est une variété forte, à port érigé.
-Maladies
-La pomme montre une forte sensibilité aux maladies, elle est d'une faible rusticité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Starking_Delicious</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Starking_Delicious</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Maladies</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pomme montre une forte sensibilité aux maladies, elle est d'une faible rusticité.
 Sensible au chancre, à l'araignée rouge et très sujette à la tavelure, elle est aussi attaquée par le puceron lanigère.
 </t>
         </is>
